--- a/templates/MemberTemplate.xlsx
+++ b/templates/MemberTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\NEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\Demi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,35 +385,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 D1:D1048576">
+      <formula1>1</formula1>
+      <formula2>999999999</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Phone Number" error="Enter phone number in 255XXXXXXXXX format" promptTitle="Phone Number" prompt="Enter phone number in 255XXXXXXXXX format" sqref="B1:B1048576">
+      <formula1>12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CEvents Members Template</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold Italic"&amp;14Demi Events - Member Template</oddHeader>
     <oddFooter>&amp;C&amp;D</oddFooter>
   </headerFooter>
 </worksheet>

--- a/templates/MemberTemplate.xlsx
+++ b/templates/MemberTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\Demi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.felix\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +50,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,16 +80,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -383,36 +432,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 D1:D1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1048576">
       <formula1>1</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
